--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1397840.295216323</v>
+        <v>-1400701.109008615</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32.55518202532707</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>244.8448976285501</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>17.00184265631233</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>126.8838859631191</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>39.13625793941095</v>
       </c>
       <c r="U4" t="n">
-        <v>81.23711280724974</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>174.1382159147955</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>104.1383913127193</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>97.26234557100796</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>46.6082613068418</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>149.7685012844057</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>80.54054354495958</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>15.91114126833898</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>15.85533654003071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.7416790765836</v>
+        <v>315.1268538421686</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.0051123819518</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>73.18818411814982</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177537</v>
+        <v>127.8724504177534</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5073162493723</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>98.89532502175524</v>
       </c>
       <c r="G9" t="n">
         <v>135.438182924131</v>
       </c>
       <c r="H9" t="n">
-        <v>93.8339267169637</v>
+        <v>93.83392671696365</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906623</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2924232858446</v>
+        <v>136.2924232858444</v>
       </c>
       <c r="T9" t="n">
-        <v>192.4848946346715</v>
+        <v>192.4848946346714</v>
       </c>
       <c r="U9" t="n">
         <v>225.8160311441933</v>
       </c>
       <c r="V9" t="n">
-        <v>141.3664192522335</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3936111367397</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169638</v>
+        <v>105.4699075169635</v>
       </c>
       <c r="S10" t="n">
-        <v>196.178826391195</v>
+        <v>196.1788263911949</v>
       </c>
       <c r="T10" t="n">
-        <v>221.1204706627545</v>
+        <v>221.1204706627544</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2319001807608</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>231.217762704516</v>
       </c>
       <c r="W10" t="n">
-        <v>123.5780840140104</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="G13" t="n">
-        <v>18.16423677622421</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>90.14863908058143</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.03063761899501</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>18.49605685438627</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2318,10 +2318,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833814</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>160.3783204776929</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2555,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>136.7593194687118</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,10 +2792,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>143.1086912616885</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3266,13 +3266,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541849</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002295</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>534.7928453799753</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C2" t="n">
-        <v>534.7928453799753</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D2" t="n">
-        <v>534.7928453799753</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E2" t="n">
-        <v>534.7928453799753</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F2" t="n">
-        <v>534.7928453799753</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471533</v>
+        <v>586.7364457822816</v>
       </c>
       <c r="V2" t="n">
-        <v>534.7928453799753</v>
+        <v>320.3587892151036</v>
       </c>
       <c r="W2" t="n">
-        <v>534.7928453799753</v>
+        <v>320.3587892151036</v>
       </c>
       <c r="X2" t="n">
-        <v>534.7928453799753</v>
+        <v>320.3587892151036</v>
       </c>
       <c r="Y2" t="n">
-        <v>534.7928453799753</v>
+        <v>53.98113264792562</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307.4282065123045</v>
+        <v>38.27068884084002</v>
       </c>
       <c r="C3" t="n">
-        <v>307.4282065123045</v>
+        <v>38.27068884084002</v>
       </c>
       <c r="D3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374622</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U3" t="n">
-        <v>729.8809002605742</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="V3" t="n">
-        <v>729.8809002605742</v>
+        <v>246.1221890463729</v>
       </c>
       <c r="W3" t="n">
-        <v>475.6435435323726</v>
+        <v>246.1221890463729</v>
       </c>
       <c r="X3" t="n">
-        <v>475.6435435323726</v>
+        <v>38.27068884084002</v>
       </c>
       <c r="Y3" t="n">
-        <v>475.6435435323726</v>
+        <v>38.27068884084002</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>615.2521776787694</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>446.3159947508624</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>446.3159947508624</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>298.4029011684693</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>298.4029011684693</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>298.4029011684693</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>808.5369117403634</v>
       </c>
       <c r="U4" t="n">
-        <v>972.7978303017319</v>
+        <v>542.1592551731853</v>
       </c>
       <c r="V4" t="n">
-        <v>796.9006425090091</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="W4" t="n">
-        <v>796.9006425090091</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="X4" t="n">
-        <v>796.9006425090091</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y4" t="n">
-        <v>796.9006425090091</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4547,40 +4547,40 @@
         <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E5" t="n">
         <v>255.7225503044907</v>
       </c>
       <c r="F5" t="n">
-        <v>248.7770495552872</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>235.8132367818428</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
         <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4604,13 +4604,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>592.7666630722902</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="C6" t="n">
-        <v>418.3136337911632</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="D6" t="n">
-        <v>371.2345819660704</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E6" t="n">
-        <v>211.9971269606149</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F6" t="n">
         <v>65.46256898749988</v>
@@ -4641,25 +4641,25 @@
         <v>65.46256898749988</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>694.2029851278862</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>659.7474918534681</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>424.5953836217254</v>
       </c>
       <c r="W6" t="n">
-        <v>800.618163277823</v>
+        <v>424.5953836217254</v>
       </c>
       <c r="X6" t="n">
-        <v>592.7666630722902</v>
+        <v>216.7438834161925</v>
       </c>
       <c r="Y6" t="n">
-        <v>592.7666630722902</v>
+        <v>65.46256898749988</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>356.2217926073722</v>
+        <v>252.5678342013043</v>
       </c>
       <c r="C7" t="n">
-        <v>187.2856096794653</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="D7" t="n">
-        <v>37.16897026712957</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E7" t="n">
-        <v>37.16897026712957</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
-        <v>37.16897026712957</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>37.16897026712957</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165359</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T7" t="n">
-        <v>622.5994491745502</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U7" t="n">
-        <v>356.2217926073722</v>
+        <v>700.593955598722</v>
       </c>
       <c r="V7" t="n">
-        <v>356.2217926073722</v>
+        <v>700.593955598722</v>
       </c>
       <c r="W7" t="n">
-        <v>356.2217926073722</v>
+        <v>434.216299031544</v>
       </c>
       <c r="X7" t="n">
-        <v>356.2217926073722</v>
+        <v>434.216299031544</v>
       </c>
       <c r="Y7" t="n">
-        <v>356.2217926073722</v>
+        <v>434.216299031544</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1247.684183178694</v>
+        <v>1478.993300852092</v>
       </c>
       <c r="C8" t="n">
-        <v>1231.668691724118</v>
+        <v>1110.03078391168</v>
       </c>
       <c r="D8" t="n">
-        <v>873.4029931173673</v>
+        <v>751.7650853049297</v>
       </c>
       <c r="E8" t="n">
-        <v>873.4029931173673</v>
+        <v>751.7650853049297</v>
       </c>
       <c r="F8" t="n">
-        <v>462.4170883277598</v>
+        <v>744.8195845557262</v>
       </c>
       <c r="G8" t="n">
-        <v>46.5164023918167</v>
+        <v>426.5096311797984</v>
       </c>
       <c r="H8" t="n">
-        <v>46.5164023918167</v>
+        <v>120.4438610970188</v>
       </c>
       <c r="I8" t="n">
-        <v>46.5164023918167</v>
+        <v>46.51640239181697</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229153</v>
+        <v>166.4989367229165</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677474</v>
+        <v>397.0601716677501</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937537</v>
+        <v>719.9935330937583</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721572</v>
+        <v>1110.988557721578</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999414</v>
+        <v>1512.924098999422</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830549</v>
+        <v>1879.125171830558</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271715</v>
+        <v>2157.168314271726</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257574</v>
+        <v>2317.794388257586</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590835</v>
+        <v>2325.820119590848</v>
       </c>
       <c r="S8" t="n">
-        <v>2196.656028259771</v>
+        <v>2196.656028259784</v>
       </c>
       <c r="T8" t="n">
-        <v>1987.05267851293</v>
+        <v>2196.656028259784</v>
       </c>
       <c r="U8" t="n">
-        <v>1987.05267851293</v>
+        <v>2196.656028259784</v>
       </c>
       <c r="V8" t="n">
-        <v>1987.05267851293</v>
+        <v>1865.593140916214</v>
       </c>
       <c r="W8" t="n">
-        <v>1634.284023242816</v>
+        <v>1865.593140916214</v>
       </c>
       <c r="X8" t="n">
-        <v>1634.284023242816</v>
+        <v>1865.593140916214</v>
       </c>
       <c r="Y8" t="n">
-        <v>1634.284023242816</v>
+        <v>1865.593140916214</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>784.7659619054696</v>
+        <v>860.6235535748526</v>
       </c>
       <c r="C9" t="n">
-        <v>610.3129326243426</v>
+        <v>686.1705242937256</v>
       </c>
       <c r="D9" t="n">
-        <v>461.3785229630913</v>
+        <v>537.2361146324744</v>
       </c>
       <c r="E9" t="n">
-        <v>302.1410679576358</v>
+        <v>377.9986596270189</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1410679576358</v>
+        <v>278.1043919282762</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3348225797257</v>
+        <v>141.2981465503661</v>
       </c>
       <c r="H9" t="n">
-        <v>70.55307842117654</v>
+        <v>46.51640239181697</v>
       </c>
       <c r="I9" t="n">
-        <v>46.5164023918167</v>
+        <v>46.51640239181697</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091977881</v>
+        <v>99.15933091977966</v>
       </c>
       <c r="K9" t="n">
-        <v>267.2893053412811</v>
+        <v>415.0035170892971</v>
       </c>
       <c r="L9" t="n">
-        <v>539.6833456336946</v>
+        <v>990.6439966880321</v>
       </c>
       <c r="M9" t="n">
-        <v>1115.323825232426</v>
+        <v>1327.871861884697</v>
       </c>
       <c r="N9" t="n">
-        <v>1480.457275277533</v>
+        <v>1688.433790136033</v>
       </c>
       <c r="O9" t="n">
-        <v>1788.081202938419</v>
+        <v>1996.057717796921</v>
       </c>
       <c r="P9" t="n">
-        <v>2015.643459247535</v>
+        <v>2223.619974106038</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.820119590835</v>
+        <v>2325.820119590848</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590835</v>
+        <v>2325.820119590848</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.151005160689</v>
+        <v>2188.151005160702</v>
       </c>
       <c r="T9" t="n">
-        <v>1993.721818661021</v>
+        <v>1993.721818661034</v>
       </c>
       <c r="U9" t="n">
-        <v>1765.62481750527</v>
+        <v>1765.624817505284</v>
       </c>
       <c r="V9" t="n">
-        <v>1622.830454624226</v>
+        <v>1530.472709273541</v>
       </c>
       <c r="W9" t="n">
-        <v>1368.593097896024</v>
+        <v>1276.235352545339</v>
       </c>
       <c r="X9" t="n">
-        <v>1160.741597690492</v>
+        <v>1068.383852339806</v>
       </c>
       <c r="Y9" t="n">
-        <v>952.9812989255377</v>
+        <v>860.6235535748526</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>383.526940003299</v>
+        <v>46.51640239181697</v>
       </c>
       <c r="C10" t="n">
-        <v>214.5907570753922</v>
+        <v>46.51640239181697</v>
       </c>
       <c r="D10" t="n">
-        <v>214.5907570753922</v>
+        <v>46.51640239181697</v>
       </c>
       <c r="E10" t="n">
-        <v>214.5907570753922</v>
+        <v>46.51640239181697</v>
       </c>
       <c r="F10" t="n">
-        <v>214.5907570753922</v>
+        <v>46.51640239181697</v>
       </c>
       <c r="G10" t="n">
-        <v>46.5164023918167</v>
+        <v>46.51640239181697</v>
       </c>
       <c r="H10" t="n">
-        <v>46.5164023918167</v>
+        <v>46.51640239181697</v>
       </c>
       <c r="I10" t="n">
-        <v>46.5164023918167</v>
+        <v>46.51640239181697</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909507</v>
+        <v>65.8954080190957</v>
       </c>
       <c r="K10" t="n">
-        <v>227.577903973601</v>
+        <v>227.5779039736022</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632603</v>
+        <v>490.0022680632622</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794032</v>
+        <v>777.0810884794059</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.768432620617</v>
+        <v>1062.768432620621</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257112</v>
+        <v>1310.630639257117</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325114</v>
+        <v>1499.198894325119</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718228</v>
+        <v>1546.318699718233</v>
       </c>
       <c r="R10" t="n">
-        <v>1439.783439600082</v>
+        <v>1439.783439600088</v>
       </c>
       <c r="S10" t="n">
-        <v>1241.623008901906</v>
+        <v>1241.623008901911</v>
       </c>
       <c r="T10" t="n">
-        <v>1018.268998131447</v>
+        <v>1018.268998131452</v>
       </c>
       <c r="U10" t="n">
-        <v>729.1458666357286</v>
+        <v>1018.268998131452</v>
       </c>
       <c r="V10" t="n">
-        <v>729.1458666357286</v>
+        <v>784.715702470325</v>
       </c>
       <c r="W10" t="n">
-        <v>604.3195191468292</v>
+        <v>495.2985324333644</v>
       </c>
       <c r="X10" t="n">
-        <v>604.3195191468292</v>
+        <v>267.3089815353471</v>
       </c>
       <c r="Y10" t="n">
-        <v>383.526940003299</v>
+        <v>46.51640239181697</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>633.992644467967</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556313</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>335.9629114732381</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>335.9629114732381</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239597</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397185</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5504,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5738,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>800.5007694647277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>650.3841300523919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1089.917939501689</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>920.9817565737817</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>770.8651171614459</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>622.9520235790528</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1720.348534373476</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1492.358983475458</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1271.566404331928</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>806.8386896933887</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9025067654818</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.363146234998</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2015.761681257939</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1726.686454602137</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.686454602137</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,22 +6780,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>417.9651836029414</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L33" t="n">
-        <v>913.2907898187001</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,7 +6859,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311325</v>
@@ -6883,22 +6883,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>740.5562989961525</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1368.154262550759</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7828,28 +7828,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8146,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444617</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,10 +8304,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544048</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>45.78351343583188</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8532,16 +8532,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>149.2062744929436</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>306.3095346528487</v>
       </c>
       <c r="M9" t="n">
-        <v>240.8208226283523</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>4.617698781586967</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>27.38164655864796</v>
+        <v>27.38164655864759</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9638,10 +9638,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>350.1786596381535</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>203.6926688459128</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>167.9892770171598</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -22680,7 +22680,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>98.97060154043554</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,16 +22717,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
-        <v>77.99942740903252</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8997516911</v>
       </c>
       <c r="G13" t="n">
-        <v>147.3599015160446</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>196.0358353086627</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.8013425629423</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>127.9379057921829</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393071</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>58.20633287440185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>8.661728554219422</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>28.9574215632814</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>37.91759473995606</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1260226.388994695</v>
+        <v>1260226.388994694</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154573</v>
+        <v>135401.7127154574</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728567</v>
@@ -26320,40 +26320,40 @@
         <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
+        <v>161429.3199380012</v>
+      </c>
+      <c r="F2" t="n">
         <v>161429.3199380013</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>161429.3199380013</v>
+      </c>
+      <c r="H2" t="n">
         <v>161429.3199380012</v>
-      </c>
-      <c r="G2" t="n">
-        <v>161429.3199380012</v>
-      </c>
-      <c r="H2" t="n">
-        <v>161429.3199380013</v>
       </c>
       <c r="I2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
-        <v>161429.3199380011</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="M2" t="n">
         <v>164208.3539728567</v>
-      </c>
-      <c r="M2" t="n">
-        <v>164208.3539728568</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512965</v>
+        <v>331437.5228512998</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424132</v>
+        <v>563905.7843424097</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201167</v>
+        <v>99845.14336201246</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569562</v>
+        <v>147342.6769569554</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167228.5543935668</v>
+        <v>167228.5543935669</v>
       </c>
       <c r="C4" t="n">
         <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
-        <v>154923.9080077267</v>
+        <v>154923.9080077258</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26430,34 +26430,34 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768948</v>
+        <v>9947.144321768912</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768958</v>
+        <v>9947.144321768943</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768936</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768967</v>
+        <v>9947.144321768939</v>
       </c>
       <c r="L4" t="n">
-        <v>17938.00358486239</v>
+        <v>17938.00358486234</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.00358486243</v>
+        <v>17938.0035848624</v>
       </c>
       <c r="N4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486238</v>
       </c>
       <c r="O4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486238</v>
       </c>
       <c r="P4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.0035848624</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543569</v>
+        <v>88290.79546543595</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-774962.6254735688</v>
+        <v>-775322.7084892862</v>
       </c>
       <c r="C6" t="n">
         <v>-148277.415562114</v>
       </c>
       <c r="D6" t="n">
-        <v>-410443.8723516022</v>
+        <v>-410443.8723516049</v>
       </c>
       <c r="E6" t="n">
-        <v>-513546.1385500879</v>
+        <v>-513580.8764755202</v>
       </c>
       <c r="F6" t="n">
-        <v>50359.6457923252</v>
+        <v>50324.90786688958</v>
       </c>
       <c r="G6" t="n">
-        <v>50359.64579232509</v>
+        <v>50324.90786688958</v>
       </c>
       <c r="H6" t="n">
-        <v>50359.6457923252</v>
+        <v>50324.90786688947</v>
       </c>
       <c r="I6" t="n">
-        <v>50359.64579232509</v>
+        <v>50324.90786688945</v>
       </c>
       <c r="J6" t="n">
-        <v>-18639.50862678903</v>
+        <v>-18674.24655222449</v>
       </c>
       <c r="K6" t="n">
-        <v>50359.64579232511</v>
+        <v>50324.90786688948</v>
       </c>
       <c r="L6" t="n">
-        <v>-56738.90882793272</v>
+        <v>-56738.9088279334</v>
       </c>
       <c r="M6" t="n">
-        <v>-104236.4424228772</v>
+        <v>-104236.4424228765</v>
       </c>
       <c r="N6" t="n">
         <v>43106.23453407895</v>
       </c>
       <c r="O6" t="n">
-        <v>43106.23453407903</v>
+        <v>43106.23453407892</v>
       </c>
       <c r="P6" t="n">
-        <v>43106.23453407906</v>
+        <v>43106.23453407889</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896786</v>
+        <v>885.8132865896814</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977088</v>
+        <v>581.4550298977121</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202003</v>
+        <v>271.758272820203</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519954</v>
+        <v>482.1622137519923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962027</v>
+        <v>317.7411498962059</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019398</v>
+        <v>591.2532582019363</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962029</v>
+        <v>317.7411498962061</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019396</v>
+        <v>591.2532582019363</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962027</v>
+        <v>317.7411498962059</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019398</v>
+        <v>591.2532582019363</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>150.9903727747702</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>130.4432229083264</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27515,13 +27515,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>184.0780879401549</v>
       </c>
       <c r="U4" t="n">
-        <v>205.0215176954277</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>302.7376544289921</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>216.93128705826</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27695,22 +27695,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>100.836804257797</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>55.91419449289862</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>86.70627755366826</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>136.4710180675178</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>349.4175552309769</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>96.61482523441498</v>
       </c>
       <c r="H8" t="n">
-        <v>303.0051123819519</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411815028</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
         <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>46.17388737162864</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>23.79630926906601</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27989,7 +27989,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>91.43416789719174</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
         <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413787</v>
+        <v>107.4132560413785</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2319001807608</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>20.91988061931195</v>
       </c>
       <c r="W10" t="n">
-        <v>162.9449143225806</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29038,19 +29038,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29275,19 +29275,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29512,10 +29512,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29986,13 +29986,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551469</v>
+        <v>3.561058438551481</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381524</v>
+        <v>36.46968973381536</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522556</v>
+        <v>137.2877054522561</v>
       </c>
       <c r="J8" t="n">
-        <v>302.240383649008</v>
+        <v>302.240383649009</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528918</v>
+        <v>452.9799873528933</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417114</v>
+        <v>561.9617295417132</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483011</v>
+        <v>625.2907025483031</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368355</v>
+        <v>635.4085598368375</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884893</v>
+        <v>599.9982849884912</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867499</v>
+        <v>512.0846547867515</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561252</v>
+        <v>384.5542494561265</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6923371406589</v>
+        <v>223.6923371406596</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849167</v>
+        <v>81.14761916849194</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475906</v>
+        <v>15.58853331475911</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841175</v>
+        <v>0.2848846750841184</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079686</v>
+        <v>1.905334239079692</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953276</v>
+        <v>18.40151751953282</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234885</v>
+        <v>65.60032358234906</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474365</v>
+        <v>180.0123019474371</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657755</v>
+        <v>307.6696959657764</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247362</v>
+        <v>413.6998750247376</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913748</v>
+        <v>482.7682411913763</v>
       </c>
       <c r="N9" t="n">
-        <v>495.545680013975</v>
+        <v>495.5456800139766</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059462</v>
+        <v>453.3274845059476</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730324</v>
+        <v>363.8352723730335</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726982</v>
+        <v>243.214244272699</v>
       </c>
       <c r="R9" t="n">
-        <v>118.297857405316</v>
+        <v>118.2978574053164</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799327</v>
+        <v>35.39074781799338</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150135</v>
+        <v>7.67983406015016</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815583</v>
+        <v>0.1253509367815587</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719092</v>
+        <v>1.597368221719097</v>
       </c>
       <c r="H10" t="n">
-        <v>14.20205564401158</v>
+        <v>14.20205564401162</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587962</v>
+        <v>48.03721888587978</v>
       </c>
       <c r="J10" t="n">
-        <v>112.9339332755398</v>
+        <v>112.9339332755402</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051818</v>
+        <v>185.5851443051824</v>
       </c>
       <c r="L10" t="n">
-        <v>237.485089981764</v>
+        <v>237.4850899817648</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191119</v>
+        <v>250.3947295191127</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108864</v>
+        <v>244.4409025108872</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753496</v>
+        <v>225.7807373753503</v>
       </c>
       <c r="P10" t="n">
-        <v>193.19442565228</v>
+        <v>193.1944256522806</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750414</v>
+        <v>133.7578062750419</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020571</v>
+        <v>71.82348386020594</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577726</v>
+        <v>27.83777164577735</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527029</v>
+        <v>6.825118765527051</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013242</v>
+        <v>0.08712917573013269</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>489.3502824033305</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,31 +32312,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>454.5606621218849</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,16 +32555,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,10 +32795,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33500,25 +33500,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>463.4789474089069</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>638.9422653403558</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33968,31 +33968,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N39" t="n">
-        <v>578.1083652167725</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760392</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,7 +34451,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>404.0195168876591</v>
+        <v>531.8166820790245</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34866,7 @@
         <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015061</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>217.43861174566</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223218</v>
+        <v>121.1944791223227</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079112</v>
+        <v>232.8901363079127</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717242</v>
+        <v>326.195314571726</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210284</v>
+        <v>394.9444693210304</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402446</v>
+        <v>405.9954962402466</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668026</v>
+        <v>369.9000735668044</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314803</v>
+        <v>280.8516590314819</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816757</v>
+        <v>162.248559581677</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326526783</v>
+        <v>8.106799326527494</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.1746752807698</v>
+        <v>53.1746752807704</v>
       </c>
       <c r="K9" t="n">
-        <v>169.8282569914165</v>
+        <v>319.0345314843611</v>
       </c>
       <c r="L9" t="n">
-        <v>275.145495244862</v>
+        <v>581.4550298977121</v>
       </c>
       <c r="M9" t="n">
-        <v>581.4550298977088</v>
+        <v>340.634207269358</v>
       </c>
       <c r="N9" t="n">
-        <v>368.8216667122287</v>
+        <v>364.2039679306433</v>
       </c>
       <c r="O9" t="n">
-        <v>310.7312400615018</v>
+        <v>310.7312400615032</v>
       </c>
       <c r="P9" t="n">
-        <v>229.8608649587021</v>
+        <v>229.8608649587033</v>
       </c>
       <c r="Q9" t="n">
-        <v>313.3097579225258</v>
+        <v>103.2324701866775</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886704</v>
+        <v>19.57475315886741</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524792989</v>
+        <v>163.3156524792995</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420801</v>
+        <v>265.0751152420809</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809525</v>
+        <v>289.9786064809533</v>
       </c>
       <c r="N10" t="n">
-        <v>288.573074890115</v>
+        <v>288.5730748901158</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893893</v>
+        <v>250.36586528939</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171734</v>
+        <v>190.4729849171741</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334706</v>
+        <v>47.59576302334752</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>347.2162484813122</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35893,7 +35893,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35960,31 +35960,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>316.7192231475259</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36358,10 +36358,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462702</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,10 +36443,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>325.6375084345479</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>496.3460208959114</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N39" t="n">
-        <v>446.7666531334392</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>265.4651371077849</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
